--- a/SO_nais_einheiten_unique_v2_mf.xlsx
+++ b/SO_nais_einheiten_unique_v2_mf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB3A88-89F0-408C-810D-52B5EE17FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2616C93-81E0-41D7-AE13-28D2E0E3F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54570" yWindow="1305" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$L$657</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="795">
   <si>
     <t>stantrung</t>
   </si>
@@ -2339,18 +2352,6 @@
     <t>6/13t</t>
   </si>
   <si>
-    <t>NAIS1
-2025</t>
-  </si>
-  <si>
-    <t>NaiS2
-2025</t>
-  </si>
-  <si>
-    <t>tahs
-2025</t>
-  </si>
-  <si>
     <t>Bemerkungen</t>
   </si>
   <si>
@@ -2405,34 +2406,22 @@
     <t xml:space="preserve">um </t>
   </si>
   <si>
-    <t xml:space="preserve">12w </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13e </t>
-  </si>
-  <si>
     <t>Es werden nur Höhenstufen bis obermontan angegeben, ausser bei jenen, die  in NaiS nur hochmontan und höher sind</t>
   </si>
   <si>
     <t>om(hm)</t>
   </si>
   <si>
-    <t xml:space="preserve">8a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7g </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7f </t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nais1</t>
+  </si>
+  <si>
+    <t>nais2</t>
+  </si>
+  <si>
+    <t>hs</t>
   </si>
 </sst>
 </file>
@@ -2826,23 +2815,26 @@
   <dimension ref="A1:N657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L499" sqref="L499"/>
+      <selection activeCell="N663" sqref="N663"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="6"/>
-    <col min="10" max="10" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="7"/>
-    <col min="12" max="12" width="9.109375" style="6"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>791</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,22 +2857,22 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="M1" t="s">
         <v>771</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="M1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>12976</v>
       </c>
@@ -2903,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>355</v>
       </c>
@@ -2929,10 +2921,10 @@
         <v>136</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>358</v>
       </c>
@@ -2958,10 +2950,10 @@
         <v>137</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -2990,7 +2982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42</v>
       </c>
@@ -3019,7 +3011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2917</v>
       </c>
@@ -3045,10 +3037,10 @@
         <v>14</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1425</v>
       </c>
@@ -3074,10 +3066,10 @@
         <v>30</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12173</v>
       </c>
@@ -3100,10 +3092,10 @@
         <v>15</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>199</v>
       </c>
@@ -3126,10 +3118,10 @@
         <v>113</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -3158,7 +3150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8736</v>
       </c>
@@ -3184,10 +3176,10 @@
         <v>17</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>90</v>
       </c>
@@ -3213,10 +3205,10 @@
         <v>75</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>105</v>
       </c>
@@ -3245,7 +3237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>148</v>
       </c>
@@ -3274,7 +3266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>118</v>
       </c>
@@ -3303,7 +3295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>337</v>
       </c>
@@ -3332,7 +3324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1557</v>
       </c>
@@ -3355,10 +3347,10 @@
         <v>22</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -3381,10 +3373,10 @@
         <v>46</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4489</v>
       </c>
@@ -3413,7 +3405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8349</v>
       </c>
@@ -3436,10 +3428,10 @@
         <v>26</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -3462,10 +3454,10 @@
         <v>25</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>589</v>
       </c>
@@ -3488,10 +3480,10 @@
         <v>25</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -3517,10 +3509,10 @@
         <v>24</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>58</v>
       </c>
@@ -3546,10 +3538,10 @@
         <v>63</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4930</v>
       </c>
@@ -3575,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -3604,10 +3596,10 @@
         <v>27</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6918</v>
       </c>
@@ -3630,16 +3622,16 @@
         <v>8</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J28" s="7">
         <v>39</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>222</v>
       </c>
@@ -3662,16 +3654,16 @@
         <v>8</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J29" s="7">
         <v>39</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>498</v>
       </c>
@@ -3697,10 +3689,10 @@
         <v>149</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6694</v>
       </c>
@@ -3726,10 +3718,10 @@
         <v>44</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1150</v>
       </c>
@@ -3755,10 +3747,10 @@
         <v>194</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8734</v>
       </c>
@@ -3784,10 +3776,10 @@
         <v>460</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20191</v>
       </c>
@@ -3816,7 +3808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>559</v>
       </c>
@@ -3839,10 +3831,10 @@
         <v>160</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>226</v>
       </c>
@@ -3871,7 +3863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>901</v>
       </c>
@@ -3894,10 +3886,10 @@
         <v>175</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8262</v>
       </c>
@@ -3920,10 +3912,10 @@
         <v>62</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3946,10 +3938,10 @@
         <v>44</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>133</v>
       </c>
@@ -3978,7 +3970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1093</v>
       </c>
@@ -4004,10 +3996,10 @@
         <v>60</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -4027,13 +4019,13 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="N42" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>55</v>
       </c>
@@ -4053,10 +4045,10 @@
         <v>57</v>
       </c>
       <c r="M43" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>297</v>
       </c>
@@ -4076,10 +4068,10 @@
         <v>127</v>
       </c>
       <c r="M44" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>22517</v>
       </c>
@@ -4111,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10323</v>
       </c>
@@ -4143,7 +4135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>15618</v>
       </c>
@@ -4175,7 +4167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>15710</v>
       </c>
@@ -4207,7 +4199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3330</v>
       </c>
@@ -4236,7 +4228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1290</v>
       </c>
@@ -4265,10 +4257,10 @@
         <v>152</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>19318</v>
       </c>
@@ -4297,10 +4289,10 @@
         <v>66</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2449</v>
       </c>
@@ -4332,7 +4324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>14571</v>
       </c>
@@ -4364,7 +4356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>952</v>
       </c>
@@ -4396,7 +4388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>14937</v>
       </c>
@@ -4428,7 +4420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7991</v>
       </c>
@@ -4457,10 +4449,10 @@
         <v>11</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>14570</v>
       </c>
@@ -4492,7 +4484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1376</v>
       </c>
@@ -4521,7 +4513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>162</v>
       </c>
@@ -4553,7 +4545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>16264</v>
       </c>
@@ -4585,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2951</v>
       </c>
@@ -4614,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8584</v>
       </c>
@@ -4643,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>19592</v>
       </c>
@@ -4672,7 +4664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>8468</v>
       </c>
@@ -4701,7 +4693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>10102</v>
       </c>
@@ -4730,7 +4722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>6943</v>
       </c>
@@ -4756,10 +4748,10 @@
         <v>20</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>8613</v>
       </c>
@@ -4785,10 +4777,10 @@
         <v>45</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5228</v>
       </c>
@@ -4814,10 +4806,10 @@
         <v>20</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>7566</v>
       </c>
@@ -4843,10 +4835,10 @@
         <v>14</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6364</v>
       </c>
@@ -4875,7 +4867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3269</v>
       </c>
@@ -4904,7 +4896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>8220</v>
       </c>
@@ -4933,7 +4925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>12825</v>
       </c>
@@ -4956,10 +4948,10 @@
         <v>102</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2803</v>
       </c>
@@ -4982,10 +4974,10 @@
         <v>26</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>8369</v>
       </c>
@@ -5008,10 +5000,10 @@
         <v>26</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>976</v>
       </c>
@@ -5034,10 +5026,10 @@
         <v>95</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>7649</v>
       </c>
@@ -5066,7 +5058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10109</v>
       </c>
@@ -5095,7 +5087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>14035</v>
       </c>
@@ -5121,10 +5113,10 @@
         <v>65</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>12202</v>
       </c>
@@ -5153,7 +5145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>6339</v>
       </c>
@@ -5185,7 +5177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>15849</v>
       </c>
@@ -5217,7 +5209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>3160</v>
       </c>
@@ -5246,10 +5238,10 @@
         <v>66</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>181</v>
       </c>
@@ -5278,7 +5270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>12963</v>
       </c>
@@ -5307,7 +5299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>15924</v>
       </c>
@@ -5339,7 +5331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>5139</v>
       </c>
@@ -5368,7 +5360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1484</v>
       </c>
@@ -5397,7 +5389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>272</v>
       </c>
@@ -5426,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>571</v>
       </c>
@@ -5455,7 +5447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1667</v>
       </c>
@@ -5484,7 +5476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>9391</v>
       </c>
@@ -5513,7 +5505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>85</v>
       </c>
@@ -5542,7 +5534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1057</v>
       </c>
@@ -5571,7 +5563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>5161</v>
       </c>
@@ -5600,7 +5592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>6641</v>
       </c>
@@ -5629,7 +5621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>14583</v>
       </c>
@@ -5661,7 +5653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>9001</v>
       </c>
@@ -5690,7 +5682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>12263</v>
       </c>
@@ -5719,7 +5711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3863</v>
       </c>
@@ -5751,7 +5743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>871</v>
       </c>
@@ -5780,7 +5772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>7164</v>
       </c>
@@ -5809,7 +5801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>6634</v>
       </c>
@@ -5838,10 +5830,10 @@
         <v>21</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>116</v>
       </c>
@@ -5870,7 +5862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3531</v>
       </c>
@@ -5899,7 +5891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>8196</v>
       </c>
@@ -5931,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>9731</v>
       </c>
@@ -5960,10 +5952,10 @@
         <v>14</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>13007</v>
       </c>
@@ -5995,7 +5987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>8670</v>
       </c>
@@ -6027,7 +6019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>974</v>
       </c>
@@ -6059,7 +6051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>8030</v>
       </c>
@@ -6088,10 +6080,10 @@
         <v>48</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>16820</v>
       </c>
@@ -6123,7 +6115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>5987</v>
       </c>
@@ -6149,10 +6141,10 @@
         <v>15</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>104</v>
       </c>
@@ -6181,7 +6173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>9283</v>
       </c>
@@ -6210,7 +6202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -6239,7 +6231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>669</v>
       </c>
@@ -6268,7 +6260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>6431</v>
       </c>
@@ -6300,7 +6292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>12544</v>
       </c>
@@ -6332,7 +6324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>9382</v>
       </c>
@@ -6361,10 +6353,10 @@
         <v>14</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>3875</v>
       </c>
@@ -6396,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>12684</v>
       </c>
@@ -6428,7 +6420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4388</v>
       </c>
@@ -6460,7 +6452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>14687</v>
       </c>
@@ -6489,7 +6481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>9350</v>
       </c>
@@ -6521,7 +6513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>15796</v>
       </c>
@@ -6553,7 +6545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -6582,7 +6574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>21226</v>
       </c>
@@ -6614,7 +6606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>18275</v>
       </c>
@@ -6643,10 +6635,10 @@
         <v>14</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>14293</v>
       </c>
@@ -6678,7 +6670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>14684</v>
       </c>
@@ -6710,7 +6702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2593</v>
       </c>
@@ -6742,7 +6734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>4130</v>
       </c>
@@ -6774,7 +6766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>20426</v>
       </c>
@@ -6806,7 +6798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>12057</v>
       </c>
@@ -6835,10 +6827,10 @@
         <v>14</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>5086</v>
       </c>
@@ -6867,10 +6859,10 @@
         <v>43</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1405</v>
       </c>
@@ -6902,7 +6894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>631</v>
       </c>
@@ -6934,7 +6926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>82</v>
       </c>
@@ -6963,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>793</v>
       </c>
@@ -6992,7 +6984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>12891</v>
       </c>
@@ -7024,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>8</v>
       </c>
@@ -7053,7 +7045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>10539</v>
       </c>
@@ -7082,7 +7074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>13117</v>
       </c>
@@ -7111,7 +7103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>108</v>
       </c>
@@ -7140,10 +7132,10 @@
         <v>15</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>10621</v>
       </c>
@@ -7175,7 +7167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1146</v>
       </c>
@@ -7207,7 +7199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>12502</v>
       </c>
@@ -7239,7 +7231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>180</v>
       </c>
@@ -7271,7 +7263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>21263</v>
       </c>
@@ -7303,7 +7295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>11228</v>
       </c>
@@ -7335,7 +7327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>14880</v>
       </c>
@@ -7367,7 +7359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>21448</v>
       </c>
@@ -7399,7 +7391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>13303</v>
       </c>
@@ -7431,7 +7423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>5503</v>
       </c>
@@ -7460,10 +7452,10 @@
         <v>18</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>20615</v>
       </c>
@@ -7495,7 +7487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>16923</v>
       </c>
@@ -7527,7 +7519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1014</v>
       </c>
@@ -7556,7 +7548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>3</v>
       </c>
@@ -7585,7 +7577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>10447</v>
       </c>
@@ -7617,7 +7609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>14877</v>
       </c>
@@ -7649,7 +7641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>134</v>
       </c>
@@ -7681,7 +7673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>15797</v>
       </c>
@@ -7713,7 +7705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>12297</v>
       </c>
@@ -7745,7 +7737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>964</v>
       </c>
@@ -7774,10 +7766,10 @@
         <v>18</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>531</v>
       </c>
@@ -7809,7 +7801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>997</v>
       </c>
@@ -7841,7 +7833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>12369</v>
       </c>
@@ -7873,7 +7865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>3107</v>
       </c>
@@ -7902,10 +7894,10 @@
         <v>21</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>12808</v>
       </c>
@@ -7934,10 +7926,10 @@
         <v>7</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1351</v>
       </c>
@@ -7969,7 +7961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>5381</v>
       </c>
@@ -8001,7 +7993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>3010</v>
       </c>
@@ -8033,7 +8025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>10477</v>
       </c>
@@ -8062,7 +8054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2440</v>
       </c>
@@ -8091,7 +8083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>15161</v>
       </c>
@@ -8123,7 +8115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1077</v>
       </c>
@@ -8152,7 +8144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>6186</v>
       </c>
@@ -8184,7 +8176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>3313</v>
       </c>
@@ -8213,7 +8205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>12284</v>
       </c>
@@ -8245,7 +8237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>7702</v>
       </c>
@@ -8274,10 +8266,10 @@
         <v>21</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>8775</v>
       </c>
@@ -8306,10 +8298,10 @@
         <v>21</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>9268</v>
       </c>
@@ -8338,10 +8330,10 @@
         <v>21</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2739</v>
       </c>
@@ -8370,10 +8362,10 @@
         <v>21</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>36</v>
       </c>
@@ -8402,7 +8394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1957</v>
       </c>
@@ -8431,10 +8423,10 @@
         <v>21</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>9588</v>
       </c>
@@ -8466,7 +8458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>10736</v>
       </c>
@@ -8495,7 +8487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1180</v>
       </c>
@@ -8524,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>4446</v>
       </c>
@@ -8556,7 +8548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>22315</v>
       </c>
@@ -8588,7 +8580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>10934</v>
       </c>
@@ -8617,7 +8609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>292</v>
       </c>
@@ -8646,7 +8638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>16133</v>
       </c>
@@ -8678,7 +8670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>21302</v>
       </c>
@@ -8710,7 +8702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>5168</v>
       </c>
@@ -8739,10 +8731,10 @@
         <v>21</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>225</v>
       </c>
@@ -8771,7 +8763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>13455</v>
       </c>
@@ -8803,7 +8795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>14485</v>
       </c>
@@ -8832,10 +8824,10 @@
         <v>91</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>21752</v>
       </c>
@@ -8864,10 +8856,10 @@
         <v>20</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>21661</v>
       </c>
@@ -8899,7 +8891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>122</v>
       </c>
@@ -8928,7 +8920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>440</v>
       </c>
@@ -8957,10 +8949,10 @@
         <v>21</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>19</v>
       </c>
@@ -8989,7 +8981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1588</v>
       </c>
@@ -9018,10 +9010,10 @@
         <v>15</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>17195</v>
       </c>
@@ -9050,10 +9042,10 @@
         <v>11</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>19407</v>
       </c>
@@ -9085,7 +9077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>6635</v>
       </c>
@@ -9117,7 +9109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>126</v>
       </c>
@@ -9146,10 +9138,10 @@
         <v>18</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1630</v>
       </c>
@@ -9181,7 +9173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>5392</v>
       </c>
@@ -9213,7 +9205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>235</v>
       </c>
@@ -9245,7 +9237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>7010</v>
       </c>
@@ -9277,7 +9269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>9066</v>
       </c>
@@ -9306,7 +9298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>8182</v>
       </c>
@@ -9335,7 +9327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>19108</v>
       </c>
@@ -9364,10 +9356,10 @@
         <v>15</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>12998</v>
       </c>
@@ -9396,10 +9388,10 @@
         <v>22</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>16501</v>
       </c>
@@ -9428,10 +9420,10 @@
         <v>14</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>859</v>
       </c>
@@ -9457,10 +9449,10 @@
         <v>20</v>
       </c>
       <c r="L219" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>9</v>
       </c>
@@ -9486,10 +9478,10 @@
         <v>20</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>8299</v>
       </c>
@@ -9521,7 +9513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>4052</v>
       </c>
@@ -9550,10 +9542,10 @@
         <v>22</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>8328</v>
       </c>
@@ -9582,10 +9574,10 @@
         <v>22</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>4443</v>
       </c>
@@ -9617,7 +9609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>7082</v>
       </c>
@@ -9649,7 +9641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>7990</v>
       </c>
@@ -9681,7 +9673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>10196</v>
       </c>
@@ -9710,10 +9702,10 @@
         <v>45</v>
       </c>
       <c r="L227" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>15352</v>
       </c>
@@ -9742,10 +9734,10 @@
         <v>18</v>
       </c>
       <c r="L228" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>15588</v>
       </c>
@@ -9774,10 +9766,10 @@
         <v>22</v>
       </c>
       <c r="L229" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>5538</v>
       </c>
@@ -9803,10 +9795,10 @@
         <v>20</v>
       </c>
       <c r="L230" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>40</v>
       </c>
@@ -9832,10 +9824,10 @@
         <v>45</v>
       </c>
       <c r="L231" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>5039</v>
       </c>
@@ -9867,7 +9859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>7464</v>
       </c>
@@ -9896,10 +9888,10 @@
         <v>14</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>471</v>
       </c>
@@ -9931,7 +9923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>269</v>
       </c>
@@ -9960,10 +9952,10 @@
         <v>102</v>
       </c>
       <c r="L235" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>4832</v>
       </c>
@@ -9998,7 +9990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>4832</v>
       </c>
@@ -10018,13 +10010,13 @@
         <v>45</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L237" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>14647</v>
       </c>
@@ -10053,10 +10045,10 @@
         <v>48</v>
       </c>
       <c r="L238" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>10290</v>
       </c>
@@ -10085,10 +10077,10 @@
         <v>65</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>10226</v>
       </c>
@@ -10117,10 +10109,10 @@
         <v>20</v>
       </c>
       <c r="L240" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>13071</v>
       </c>
@@ -10149,10 +10141,10 @@
         <v>14</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1038</v>
       </c>
@@ -10184,7 +10176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>10392</v>
       </c>
@@ -10213,10 +10205,10 @@
         <v>65</v>
       </c>
       <c r="L243" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>365</v>
       </c>
@@ -10245,7 +10237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>14899</v>
       </c>
@@ -10274,10 +10266,10 @@
         <v>16</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>14182</v>
       </c>
@@ -10309,7 +10301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>16107</v>
       </c>
@@ -10338,10 +10330,10 @@
         <v>102</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>16557</v>
       </c>
@@ -10367,10 +10359,10 @@
         <v>20</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>237</v>
       </c>
@@ -10396,10 +10388,10 @@
         <v>20</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>18100</v>
       </c>
@@ -10428,10 +10420,10 @@
         <v>22</v>
       </c>
       <c r="L250" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>5003</v>
       </c>
@@ -10457,10 +10449,10 @@
         <v>20</v>
       </c>
       <c r="L251" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>24</v>
       </c>
@@ -10489,7 +10481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2322</v>
       </c>
@@ -10518,10 +10510,10 @@
         <v>14</v>
       </c>
       <c r="L253" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>13758</v>
       </c>
@@ -10553,7 +10545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>20134</v>
       </c>
@@ -10585,7 +10577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>12861</v>
       </c>
@@ -10617,7 +10609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>9469</v>
       </c>
@@ -10646,10 +10638,10 @@
         <v>14</v>
       </c>
       <c r="L257" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>11752</v>
       </c>
@@ -10678,10 +10670,10 @@
         <v>17</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>28</v>
       </c>
@@ -10707,10 +10699,10 @@
         <v>20</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>11646</v>
       </c>
@@ -10736,10 +10728,10 @@
         <v>20</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>21455</v>
       </c>
@@ -10771,7 +10763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2700</v>
       </c>
@@ -10803,7 +10795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1559</v>
       </c>
@@ -10838,7 +10830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1559</v>
       </c>
@@ -10858,13 +10850,13 @@
         <v>14</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L264" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1416</v>
       </c>
@@ -10893,10 +10885,10 @@
         <v>15</v>
       </c>
       <c r="L265" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>21</v>
       </c>
@@ -10922,10 +10914,10 @@
         <v>14</v>
       </c>
       <c r="L266" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2900</v>
       </c>
@@ -10957,7 +10949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>4545</v>
       </c>
@@ -10989,7 +10981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>21456</v>
       </c>
@@ -11021,7 +11013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>5214</v>
       </c>
@@ -11053,7 +11045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1584</v>
       </c>
@@ -11082,10 +11074,10 @@
         <v>20</v>
       </c>
       <c r="L271" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>3551</v>
       </c>
@@ -11111,10 +11103,10 @@
         <v>14</v>
       </c>
       <c r="L272" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1556</v>
       </c>
@@ -11149,7 +11141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="I274" s="6" t="s">
         <v>13</v>
@@ -11158,13 +11150,13 @@
         <v>14</v>
       </c>
       <c r="K274" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L274" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>11338</v>
       </c>
@@ -11193,10 +11185,10 @@
         <v>65</v>
       </c>
       <c r="L275" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>8481</v>
       </c>
@@ -11228,7 +11220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>15360</v>
       </c>
@@ -11257,10 +11249,10 @@
         <v>16</v>
       </c>
       <c r="L277" s="6" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>15266</v>
       </c>
@@ -11289,10 +11281,10 @@
         <v>17</v>
       </c>
       <c r="L278" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>15778</v>
       </c>
@@ -11324,7 +11316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>20417</v>
       </c>
@@ -11350,10 +11342,10 @@
         <v>14</v>
       </c>
       <c r="L280" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>9843</v>
       </c>
@@ -11379,10 +11371,10 @@
         <v>14</v>
       </c>
       <c r="L281" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>22307</v>
       </c>
@@ -11408,10 +11400,10 @@
         <v>14</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -11437,10 +11429,10 @@
         <v>14</v>
       </c>
       <c r="L283" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>5936</v>
       </c>
@@ -11469,10 +11461,10 @@
         <v>45</v>
       </c>
       <c r="L284" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>10418</v>
       </c>
@@ -11498,10 +11490,10 @@
         <v>14</v>
       </c>
       <c r="L285" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>4382</v>
       </c>
@@ -11536,7 +11528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>4382</v>
       </c>
@@ -11556,13 +11548,13 @@
         <v>14</v>
       </c>
       <c r="K287" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L287" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>8477</v>
       </c>
@@ -11597,7 +11589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>8477</v>
       </c>
@@ -11617,13 +11609,13 @@
         <v>14</v>
       </c>
       <c r="K289" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L289" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>10386</v>
       </c>
@@ -11652,10 +11644,10 @@
         <v>65</v>
       </c>
       <c r="L290" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>10381</v>
       </c>
@@ -11684,10 +11676,10 @@
         <v>65</v>
       </c>
       <c r="L291" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1606</v>
       </c>
@@ -11716,10 +11708,10 @@
         <v>45</v>
       </c>
       <c r="L292" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>11814</v>
       </c>
@@ -11748,10 +11740,10 @@
         <v>65</v>
       </c>
       <c r="L293" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>8169</v>
       </c>
@@ -11777,10 +11769,10 @@
         <v>14</v>
       </c>
       <c r="L294" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>50</v>
       </c>
@@ -11806,10 +11798,10 @@
         <v>14</v>
       </c>
       <c r="L295" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>15264</v>
       </c>
@@ -11835,10 +11827,10 @@
         <v>14</v>
       </c>
       <c r="L296" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>10525</v>
       </c>
@@ -11864,10 +11856,10 @@
         <v>14</v>
       </c>
       <c r="L297" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>4896</v>
       </c>
@@ -11902,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>4896</v>
       </c>
@@ -11922,13 +11914,13 @@
         <v>14</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L299" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>9963</v>
       </c>
@@ -11957,10 +11949,10 @@
         <v>62</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>12810</v>
       </c>
@@ -11989,7 +11981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>3150</v>
       </c>
@@ -12012,10 +12004,10 @@
         <v>62</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>20866</v>
       </c>
@@ -12038,10 +12030,10 @@
         <v>62</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>3061</v>
       </c>
@@ -12064,10 +12056,10 @@
         <v>15</v>
       </c>
       <c r="L304" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1170</v>
       </c>
@@ -12090,10 +12082,10 @@
         <v>15</v>
       </c>
       <c r="L305" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>12143</v>
       </c>
@@ -12125,7 +12117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>6381</v>
       </c>
@@ -12157,7 +12149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>17308</v>
       </c>
@@ -12189,7 +12181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>9266</v>
       </c>
@@ -12221,7 +12213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>10874</v>
       </c>
@@ -12253,7 +12245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>12842</v>
       </c>
@@ -12282,10 +12274,10 @@
         <v>18</v>
       </c>
       <c r="L311" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>13973</v>
       </c>
@@ -12314,10 +12306,10 @@
         <v>19</v>
       </c>
       <c r="L312" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>11491</v>
       </c>
@@ -12346,10 +12338,10 @@
         <v>23</v>
       </c>
       <c r="L313" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>20010</v>
       </c>
@@ -12381,7 +12373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1393</v>
       </c>
@@ -12413,7 +12405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>10239</v>
       </c>
@@ -12445,7 +12437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>13491</v>
       </c>
@@ -12474,10 +12466,10 @@
         <v>63</v>
       </c>
       <c r="L317" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1212</v>
       </c>
@@ -12509,7 +12501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>6111</v>
       </c>
@@ -12541,7 +12533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>10773</v>
       </c>
@@ -12573,7 +12565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>4835</v>
       </c>
@@ -12599,13 +12591,13 @@
         <v>16</v>
       </c>
       <c r="K321" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L321" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>15891</v>
       </c>
@@ -12637,7 +12629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>551</v>
       </c>
@@ -12666,7 +12658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>7047</v>
       </c>
@@ -12698,7 +12690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>7062</v>
       </c>
@@ -12730,7 +12722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>15593</v>
       </c>
@@ -12759,7 +12751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>10508</v>
       </c>
@@ -12788,7 +12780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>10945</v>
       </c>
@@ -12817,7 +12809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>15303</v>
       </c>
@@ -12846,7 +12838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>61</v>
       </c>
@@ -12875,7 +12867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>15720</v>
       </c>
@@ -12907,7 +12899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>10074</v>
       </c>
@@ -12933,13 +12925,13 @@
         <v>16</v>
       </c>
       <c r="K332" s="7" t="s">
-        <v>792</v>
+        <v>28</v>
       </c>
       <c r="L332" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>6317</v>
       </c>
@@ -12971,7 +12963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>12867</v>
       </c>
@@ -13000,10 +12992,10 @@
         <v>31</v>
       </c>
       <c r="L334" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>14659</v>
       </c>
@@ -13032,7 +13024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>4474</v>
       </c>
@@ -13061,10 +13053,10 @@
         <v>18</v>
       </c>
       <c r="L336" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>10305</v>
       </c>
@@ -13093,10 +13085,10 @@
         <v>91</v>
       </c>
       <c r="L337" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>10812</v>
       </c>
@@ -13128,7 +13120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>10187</v>
       </c>
@@ -13160,7 +13152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>6464</v>
       </c>
@@ -13189,10 +13181,10 @@
         <v>140</v>
       </c>
       <c r="L340" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>10765</v>
       </c>
@@ -13224,7 +13216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>6409</v>
       </c>
@@ -13256,7 +13248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1610</v>
       </c>
@@ -13285,7 +13277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>5547</v>
       </c>
@@ -13314,7 +13306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>14712</v>
       </c>
@@ -13346,7 +13338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>14561</v>
       </c>
@@ -13375,7 +13367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>6640</v>
       </c>
@@ -13404,10 +13396,10 @@
         <v>20</v>
       </c>
       <c r="L347" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>8934</v>
       </c>
@@ -13436,10 +13428,10 @@
         <v>20</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>11263</v>
       </c>
@@ -13471,7 +13463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>11945</v>
       </c>
@@ -13503,7 +13495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>11652</v>
       </c>
@@ -13535,7 +13527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>22239</v>
       </c>
@@ -13567,7 +13559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>119</v>
       </c>
@@ -13596,7 +13588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1655</v>
       </c>
@@ -13625,7 +13617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>11382</v>
       </c>
@@ -13654,7 +13646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>21457</v>
       </c>
@@ -13686,7 +13678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>8752</v>
       </c>
@@ -13718,7 +13710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>21458</v>
       </c>
@@ -13750,7 +13742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>10798</v>
       </c>
@@ -13779,10 +13771,10 @@
         <v>17</v>
       </c>
       <c r="L359" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>7934</v>
       </c>
@@ -13814,7 +13806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>57</v>
       </c>
@@ -13843,7 +13835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1707</v>
       </c>
@@ -13872,10 +13864,10 @@
         <v>14</v>
       </c>
       <c r="L362" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>3948</v>
       </c>
@@ -13904,10 +13896,10 @@
         <v>20</v>
       </c>
       <c r="L363" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>15523</v>
       </c>
@@ -13939,7 +13931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>14462</v>
       </c>
@@ -13971,7 +13963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>11744</v>
       </c>
@@ -14003,7 +13995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>6265</v>
       </c>
@@ -14035,7 +14027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>745</v>
       </c>
@@ -14067,7 +14059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2800</v>
       </c>
@@ -14099,7 +14091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>1765</v>
       </c>
@@ -14131,7 +14123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1463</v>
       </c>
@@ -14163,7 +14155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>1241</v>
       </c>
@@ -14195,7 +14187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1693</v>
       </c>
@@ -14227,7 +14219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2255</v>
       </c>
@@ -14256,7 +14248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>3212</v>
       </c>
@@ -14285,10 +14277,10 @@
         <v>14</v>
       </c>
       <c r="L375" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>8642</v>
       </c>
@@ -14317,7 +14309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>977</v>
       </c>
@@ -14346,7 +14338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>8396</v>
       </c>
@@ -14375,7 +14367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>212</v>
       </c>
@@ -14404,7 +14396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>11667</v>
       </c>
@@ -14433,10 +14425,10 @@
         <v>16</v>
       </c>
       <c r="L380" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>6541</v>
       </c>
@@ -14465,7 +14457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>49</v>
       </c>
@@ -14497,7 +14489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>14266</v>
       </c>
@@ -14529,7 +14521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>8059</v>
       </c>
@@ -14561,7 +14553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>188</v>
       </c>
@@ -14590,7 +14582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>14559</v>
       </c>
@@ -14622,7 +14614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>14836</v>
       </c>
@@ -14651,7 +14643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>10676</v>
       </c>
@@ -14683,7 +14675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>20166</v>
       </c>
@@ -14715,7 +14707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>15425</v>
       </c>
@@ -14747,7 +14739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>11891</v>
       </c>
@@ -14779,7 +14771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>11274</v>
       </c>
@@ -14808,7 +14800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>14279</v>
       </c>
@@ -14840,7 +14832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>17061</v>
       </c>
@@ -14872,7 +14864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>14354</v>
       </c>
@@ -14901,7 +14893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>22060</v>
       </c>
@@ -14930,7 +14922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>22047</v>
       </c>
@@ -14956,10 +14948,10 @@
         <v>20</v>
       </c>
       <c r="L397" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>21930</v>
       </c>
@@ -14985,10 +14977,10 @@
         <v>102</v>
       </c>
       <c r="L398" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>22119</v>
       </c>
@@ -15014,10 +15006,10 @@
         <v>26</v>
       </c>
       <c r="L399" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>22115</v>
       </c>
@@ -15046,7 +15038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>22056</v>
       </c>
@@ -15069,13 +15061,13 @@
         <v>22</v>
       </c>
       <c r="K401" s="7" t="s">
-        <v>793</v>
+        <v>20</v>
       </c>
       <c r="L401" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>22059</v>
       </c>
@@ -15101,10 +15093,10 @@
         <v>17</v>
       </c>
       <c r="L402" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>22138</v>
       </c>
@@ -15127,10 +15119,10 @@
         <v>22</v>
       </c>
       <c r="L403" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>1996</v>
       </c>
@@ -15153,10 +15145,10 @@
         <v>22</v>
       </c>
       <c r="L404" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>15003</v>
       </c>
@@ -15182,10 +15174,10 @@
         <v>22</v>
       </c>
       <c r="L405" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>89</v>
       </c>
@@ -15208,10 +15200,10 @@
         <v>22</v>
       </c>
       <c r="L406" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>2431</v>
       </c>
@@ -15237,10 +15229,10 @@
         <v>22</v>
       </c>
       <c r="L407" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>152</v>
       </c>
@@ -15263,10 +15255,10 @@
         <v>102</v>
       </c>
       <c r="L408" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>1412</v>
       </c>
@@ -15289,10 +15281,10 @@
         <v>102</v>
       </c>
       <c r="L409" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>312</v>
       </c>
@@ -15315,10 +15307,10 @@
         <v>102</v>
       </c>
       <c r="L410" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>9280</v>
       </c>
@@ -15344,10 +15336,10 @@
         <v>14</v>
       </c>
       <c r="L411" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>6951</v>
       </c>
@@ -15367,7 +15359,7 @@
         <v>102</v>
       </c>
       <c r="I412" s="6" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="J412" s="7" t="s">
         <v>102</v>
@@ -15379,7 +15371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>6951</v>
       </c>
@@ -15399,13 +15391,13 @@
         <v>102</v>
       </c>
       <c r="K413" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L413" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>14857</v>
       </c>
@@ -15431,10 +15423,10 @@
         <v>22</v>
       </c>
       <c r="L414" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>7224</v>
       </c>
@@ -15460,10 +15452,10 @@
         <v>95</v>
       </c>
       <c r="L415" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>5138</v>
       </c>
@@ -15492,7 +15484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>797</v>
       </c>
@@ -15521,7 +15513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>1326</v>
       </c>
@@ -15547,10 +15539,10 @@
         <v>65</v>
       </c>
       <c r="L418" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>354</v>
       </c>
@@ -15573,10 +15565,10 @@
         <v>26</v>
       </c>
       <c r="L419" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>100</v>
       </c>
@@ -15599,10 +15591,10 @@
         <v>26</v>
       </c>
       <c r="L420" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>6722</v>
       </c>
@@ -15625,10 +15617,10 @@
         <v>26</v>
       </c>
       <c r="L421" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>196</v>
       </c>
@@ -15651,10 +15643,10 @@
         <v>26</v>
       </c>
       <c r="L422" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>7912</v>
       </c>
@@ -15683,7 +15675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>4788</v>
       </c>
@@ -15709,10 +15701,10 @@
         <v>95</v>
       </c>
       <c r="L424" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>359</v>
       </c>
@@ -15741,7 +15733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>3331</v>
       </c>
@@ -15770,7 +15762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>3331</v>
       </c>
@@ -15784,16 +15776,16 @@
         <v>298</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J427" s="7">
         <v>26</v>
       </c>
       <c r="L427" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>5891</v>
       </c>
@@ -15825,7 +15817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>5891</v>
       </c>
@@ -15839,7 +15831,7 @@
         <v>361</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J429" s="7">
         <v>26</v>
@@ -15848,10 +15840,10 @@
         <v>22</v>
       </c>
       <c r="L429" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>8224</v>
       </c>
@@ -15877,10 +15869,10 @@
         <v>26</v>
       </c>
       <c r="L430" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>11654</v>
       </c>
@@ -15903,10 +15895,10 @@
         <v>65</v>
       </c>
       <c r="L431" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>62</v>
       </c>
@@ -15929,10 +15921,10 @@
         <v>65</v>
       </c>
       <c r="L432" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>446</v>
       </c>
@@ -15955,10 +15947,10 @@
         <v>65</v>
       </c>
       <c r="L433" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>129</v>
       </c>
@@ -15981,10 +15973,10 @@
         <v>95</v>
       </c>
       <c r="L434" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>2750</v>
       </c>
@@ -16010,10 +16002,10 @@
         <v>62</v>
       </c>
       <c r="L435" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>51</v>
       </c>
@@ -16036,10 +16028,10 @@
         <v>95</v>
       </c>
       <c r="L436" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>1426</v>
       </c>
@@ -16068,7 +16060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>15456</v>
       </c>
@@ -16100,7 +16092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>11690</v>
       </c>
@@ -16132,7 +16124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>77</v>
       </c>
@@ -16158,13 +16150,13 @@
         <v>69</v>
       </c>
       <c r="K440" s="7" t="s">
-        <v>792</v>
+        <v>28</v>
       </c>
       <c r="L440" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>6001</v>
       </c>
@@ -16187,10 +16179,10 @@
         <v>95</v>
       </c>
       <c r="L441" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>1776</v>
       </c>
@@ -16222,7 +16214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>22162</v>
       </c>
@@ -16254,7 +16246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>21750</v>
       </c>
@@ -16286,7 +16278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>11986</v>
       </c>
@@ -16318,7 +16310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>2434</v>
       </c>
@@ -16344,10 +16336,10 @@
         <v>258</v>
       </c>
       <c r="L446" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>2557</v>
       </c>
@@ -16373,10 +16365,10 @@
         <v>258</v>
       </c>
       <c r="L447" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>2437</v>
       </c>
@@ -16402,10 +16394,10 @@
         <v>258</v>
       </c>
       <c r="L448" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>253</v>
       </c>
@@ -16431,10 +16423,10 @@
         <v>122</v>
       </c>
       <c r="L449" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>1614</v>
       </c>
@@ -16463,10 +16455,10 @@
         <v>14</v>
       </c>
       <c r="L450" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>2608</v>
       </c>
@@ -16492,10 +16484,10 @@
         <v>30</v>
       </c>
       <c r="L451" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>9311</v>
       </c>
@@ -16524,7 +16516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>15410</v>
       </c>
@@ -16553,13 +16545,13 @@
         <v>39</v>
       </c>
       <c r="K453" s="7" t="s">
-        <v>794</v>
+        <v>45</v>
       </c>
       <c r="L453" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>15410</v>
       </c>
@@ -16576,16 +16568,16 @@
         <v>13</v>
       </c>
       <c r="J454" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K454" s="7" t="s">
-        <v>794</v>
+        <v>45</v>
       </c>
       <c r="L454" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>8441</v>
       </c>
@@ -16620,7 +16612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>8441</v>
       </c>
@@ -16637,7 +16629,7 @@
         <v>13</v>
       </c>
       <c r="J456" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K456" s="7">
         <v>14</v>
@@ -16646,7 +16638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1531</v>
       </c>
@@ -16681,7 +16673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1531</v>
       </c>
@@ -16698,7 +16690,7 @@
         <v>13</v>
       </c>
       <c r="J458" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K458" s="7" t="s">
         <v>102</v>
@@ -16707,7 +16699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>550</v>
       </c>
@@ -16742,7 +16734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>550</v>
       </c>
@@ -16759,7 +16751,7 @@
         <v>13</v>
       </c>
       <c r="J460" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K460" s="7" t="s">
         <v>102</v>
@@ -16768,7 +16760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>4507</v>
       </c>
@@ -16803,7 +16795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>4507</v>
       </c>
@@ -16820,7 +16812,7 @@
         <v>13</v>
       </c>
       <c r="J462" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K462" s="7">
         <v>65</v>
@@ -16829,7 +16821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>2512</v>
       </c>
@@ -16852,16 +16844,16 @@
         <v>8</v>
       </c>
       <c r="I463" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J463" s="7">
         <v>39</v>
       </c>
       <c r="L463" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>2512</v>
       </c>
@@ -16878,13 +16870,13 @@
         <v>13</v>
       </c>
       <c r="J464" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L464" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>6918</v>
       </c>
@@ -16901,13 +16893,13 @@
         <v>13</v>
       </c>
       <c r="J465" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L465" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>222</v>
       </c>
@@ -16924,13 +16916,13 @@
         <v>13</v>
       </c>
       <c r="J466" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L466" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>2779</v>
       </c>
@@ -16959,10 +16951,10 @@
         <v>29</v>
       </c>
       <c r="L467" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>5564</v>
       </c>
@@ -16991,7 +16983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>15156</v>
       </c>
@@ -17020,7 +17012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>11484</v>
       </c>
@@ -17049,7 +17041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>12108</v>
       </c>
@@ -17078,7 +17070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>14610</v>
       </c>
@@ -17107,7 +17099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>12161</v>
       </c>
@@ -17133,10 +17125,10 @@
         <v>22</v>
       </c>
       <c r="L473" s="6" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>18323</v>
       </c>
@@ -17162,10 +17154,10 @@
         <v>69</v>
       </c>
       <c r="L474" s="6" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>10337</v>
       </c>
@@ -17191,10 +17183,10 @@
         <v>15</v>
       </c>
       <c r="L475" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>22483</v>
       </c>
@@ -17223,7 +17215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>22442</v>
       </c>
@@ -17255,7 +17247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>4869</v>
       </c>
@@ -17287,7 +17279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>18660</v>
       </c>
@@ -17319,7 +17311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>743</v>
       </c>
@@ -17348,10 +17340,10 @@
         <v>66</v>
       </c>
       <c r="L480" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>12340</v>
       </c>
@@ -17377,13 +17369,13 @@
         <v>6</v>
       </c>
       <c r="K481" s="7" t="s">
-        <v>797</v>
+        <v>66</v>
       </c>
       <c r="L481" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>20433</v>
       </c>
@@ -17409,10 +17401,10 @@
         <v>14</v>
       </c>
       <c r="L482" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>8248</v>
       </c>
@@ -17441,7 +17433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>8047</v>
       </c>
@@ -17464,13 +17456,13 @@
         <v>62</v>
       </c>
       <c r="K484" s="7" t="s">
-        <v>792</v>
+        <v>28</v>
       </c>
       <c r="L484" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>3676</v>
       </c>
@@ -17499,7 +17491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>13365</v>
       </c>
@@ -17525,10 +17517,10 @@
         <v>95</v>
       </c>
       <c r="L486" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>15637</v>
       </c>
@@ -17560,7 +17552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>178</v>
       </c>
@@ -17586,10 +17578,10 @@
         <v>65</v>
       </c>
       <c r="L488" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>4860</v>
       </c>
@@ -17618,10 +17610,10 @@
         <v>20</v>
       </c>
       <c r="L489" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>5671</v>
       </c>
@@ -17650,10 +17642,10 @@
         <v>14</v>
       </c>
       <c r="L490" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>4307</v>
       </c>
@@ -17682,10 +17674,10 @@
         <v>14</v>
       </c>
       <c r="L491" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>20161</v>
       </c>
@@ -17717,7 +17709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>19985</v>
       </c>
@@ -17749,7 +17741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>56</v>
       </c>
@@ -17784,7 +17776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>56</v>
       </c>
@@ -17804,13 +17796,13 @@
         <v>65</v>
       </c>
       <c r="K495" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L495" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>13245</v>
       </c>
@@ -17836,13 +17828,13 @@
         <v>65</v>
       </c>
       <c r="K496" s="7" t="s">
-        <v>794</v>
+        <v>45</v>
       </c>
       <c r="L496" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>10238</v>
       </c>
@@ -17871,10 +17863,10 @@
         <v>14</v>
       </c>
       <c r="L497" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>10213</v>
       </c>
@@ -17903,10 +17895,10 @@
         <v>14</v>
       </c>
       <c r="L498" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>12804</v>
       </c>
@@ -17941,7 +17933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>12804</v>
       </c>
@@ -17961,13 +17953,13 @@
         <v>65</v>
       </c>
       <c r="K500" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L500" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>6329</v>
       </c>
@@ -17996,10 +17988,10 @@
         <v>62</v>
       </c>
       <c r="L501" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>10155</v>
       </c>
@@ -18028,10 +18020,10 @@
         <v>67</v>
       </c>
       <c r="L502" s="6" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>15843</v>
       </c>
@@ -18057,10 +18049,10 @@
         <v>65</v>
       </c>
       <c r="L503" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>22231</v>
       </c>
@@ -18083,13 +18075,13 @@
         <v>8</v>
       </c>
       <c r="J504" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="L504" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>344</v>
       </c>
@@ -18118,7 +18110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>12172</v>
       </c>
@@ -18147,7 +18139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>103</v>
       </c>
@@ -18176,7 +18168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>20404</v>
       </c>
@@ -18205,7 +18197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>22400</v>
       </c>
@@ -18237,7 +18229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>22401</v>
       </c>
@@ -18269,7 +18261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>7517</v>
       </c>
@@ -18298,7 +18290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>1804</v>
       </c>
@@ -18330,7 +18322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>8813</v>
       </c>
@@ -18362,7 +18354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>16321</v>
       </c>
@@ -18394,7 +18386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>5006</v>
       </c>
@@ -18426,7 +18418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>34</v>
       </c>
@@ -18455,10 +18447,10 @@
         <v>66</v>
       </c>
       <c r="L516" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>1718</v>
       </c>
@@ -18487,7 +18479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>10893</v>
       </c>
@@ -18516,7 +18508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>20268</v>
       </c>
@@ -18545,10 +18537,10 @@
         <v>66</v>
       </c>
       <c r="L519" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>2193</v>
       </c>
@@ -18577,7 +18569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>1</v>
       </c>
@@ -18606,7 +18598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>865</v>
       </c>
@@ -18635,7 +18627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>4</v>
       </c>
@@ -18664,7 +18656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>5344</v>
       </c>
@@ -18696,7 +18688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>6603</v>
       </c>
@@ -18728,7 +18720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>1106</v>
       </c>
@@ -18760,7 +18752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>17890</v>
       </c>
@@ -18792,7 +18784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>4970</v>
       </c>
@@ -18821,10 +18813,10 @@
         <v>66</v>
       </c>
       <c r="L528" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>19704</v>
       </c>
@@ -18856,7 +18848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>185</v>
       </c>
@@ -18885,7 +18877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>1000</v>
       </c>
@@ -18914,7 +18906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>13186</v>
       </c>
@@ -18943,7 +18935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>611</v>
       </c>
@@ -18972,7 +18964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>26</v>
       </c>
@@ -19001,7 +18993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>362</v>
       </c>
@@ -19030,7 +19022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>6181</v>
       </c>
@@ -19059,7 +19051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>2076</v>
       </c>
@@ -19091,7 +19083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>1358</v>
       </c>
@@ -19120,7 +19112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>729</v>
       </c>
@@ -19146,13 +19138,13 @@
         <v>34</v>
       </c>
       <c r="K539" s="7" t="s">
-        <v>798</v>
+        <v>10</v>
       </c>
       <c r="L539" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>12547</v>
       </c>
@@ -19181,10 +19173,10 @@
         <v>66</v>
       </c>
       <c r="L540" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>20685</v>
       </c>
@@ -19216,7 +19208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>15512</v>
       </c>
@@ -19245,7 +19237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>712</v>
       </c>
@@ -19274,7 +19266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>2724</v>
       </c>
@@ -19303,7 +19295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>7287</v>
       </c>
@@ -19335,7 +19327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>9091</v>
       </c>
@@ -19367,7 +19359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>9040</v>
       </c>
@@ -19396,10 +19388,10 @@
         <v>66</v>
       </c>
       <c r="L547" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>8604</v>
       </c>
@@ -19428,7 +19420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>265</v>
       </c>
@@ -19457,7 +19449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>13739</v>
       </c>
@@ -19489,7 +19481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>27</v>
       </c>
@@ -19521,7 +19513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>83</v>
       </c>
@@ -19550,7 +19542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>4942</v>
       </c>
@@ -19582,7 +19574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>3530</v>
       </c>
@@ -19614,7 +19606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>7491</v>
       </c>
@@ -19646,7 +19638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>18154</v>
       </c>
@@ -19678,7 +19670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>16490</v>
       </c>
@@ -19707,10 +19699,10 @@
         <v>66</v>
       </c>
       <c r="L557" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>1863</v>
       </c>
@@ -19742,7 +19734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>19545</v>
       </c>
@@ -19774,7 +19766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>450</v>
       </c>
@@ -19803,7 +19795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>15109</v>
       </c>
@@ -19835,7 +19827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>8120</v>
       </c>
@@ -19861,13 +19853,13 @@
         <v>129</v>
       </c>
       <c r="K562" s="7" t="s">
-        <v>798</v>
+        <v>10</v>
       </c>
       <c r="L562" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>5896</v>
       </c>
@@ -19893,13 +19885,13 @@
         <v>129</v>
       </c>
       <c r="K563" s="7" t="s">
-        <v>799</v>
+        <v>84</v>
       </c>
       <c r="L563" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>3501</v>
       </c>
@@ -19931,7 +19923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>8107</v>
       </c>
@@ -19957,13 +19949,13 @@
         <v>129</v>
       </c>
       <c r="K565" s="7" t="s">
-        <v>800</v>
+        <v>21</v>
       </c>
       <c r="L565" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>14960</v>
       </c>
@@ -19989,13 +19981,13 @@
         <v>129</v>
       </c>
       <c r="K566" s="7" t="s">
-        <v>800</v>
+        <v>21</v>
       </c>
       <c r="L566" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>15288</v>
       </c>
@@ -20021,13 +20013,13 @@
         <v>129</v>
       </c>
       <c r="K567" s="7" t="s">
-        <v>798</v>
+        <v>10</v>
       </c>
       <c r="L567" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>12638</v>
       </c>
@@ -20053,13 +20045,13 @@
         <v>129</v>
       </c>
       <c r="K568" s="7" t="s">
-        <v>800</v>
+        <v>21</v>
       </c>
       <c r="L568" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>7531</v>
       </c>
@@ -20088,7 +20080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>318</v>
       </c>
@@ -20117,7 +20109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>110</v>
       </c>
@@ -20146,7 +20138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>11961</v>
       </c>
@@ -20178,7 +20170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>9858</v>
       </c>
@@ -20210,7 +20202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>1750</v>
       </c>
@@ -20242,7 +20234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>7450</v>
       </c>
@@ -20274,7 +20266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>15627</v>
       </c>
@@ -20303,10 +20295,10 @@
         <v>66</v>
       </c>
       <c r="L576" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>1813</v>
       </c>
@@ -20335,7 +20327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>16924</v>
       </c>
@@ -20364,7 +20356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>2698</v>
       </c>
@@ -20393,7 +20385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>19470</v>
       </c>
@@ -20422,7 +20414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>517</v>
       </c>
@@ -20451,7 +20443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>518</v>
       </c>
@@ -20480,10 +20472,10 @@
         <v>10</v>
       </c>
       <c r="L582" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>12248</v>
       </c>
@@ -20512,7 +20504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>168</v>
       </c>
@@ -20541,7 +20533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>1017</v>
       </c>
@@ -20570,7 +20562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>73</v>
       </c>
@@ -20599,7 +20591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>3268</v>
       </c>
@@ -20628,7 +20620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>12138</v>
       </c>
@@ -20660,7 +20652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>8557</v>
       </c>
@@ -20689,7 +20681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>7941</v>
       </c>
@@ -20718,7 +20710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>17193</v>
       </c>
@@ -20747,7 +20739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>369</v>
       </c>
@@ -20776,7 +20768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>451</v>
       </c>
@@ -20805,7 +20797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>2273</v>
       </c>
@@ -20834,7 +20826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>2681</v>
       </c>
@@ -20863,7 +20855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>1293</v>
       </c>
@@ -20892,7 +20884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>1878</v>
       </c>
@@ -20921,10 +20913,10 @@
         <v>21</v>
       </c>
       <c r="L597" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>489</v>
       </c>
@@ -20953,7 +20945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>8354</v>
       </c>
@@ -20985,7 +20977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>9908</v>
       </c>
@@ -21017,7 +21009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>496</v>
       </c>
@@ -21046,7 +21038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>350</v>
       </c>
@@ -21078,7 +21070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>12039</v>
       </c>
@@ -21107,10 +21099,10 @@
         <v>21</v>
       </c>
       <c r="L603" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>7866</v>
       </c>
@@ -21139,7 +21131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>3479</v>
       </c>
@@ -21168,7 +21160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>47</v>
       </c>
@@ -21197,7 +21189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>1337</v>
       </c>
@@ -21229,7 +21221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>12105</v>
       </c>
@@ -21261,7 +21253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>4356</v>
       </c>
@@ -21293,7 +21285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>9111</v>
       </c>
@@ -21325,7 +21317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>1191</v>
       </c>
@@ -21354,7 +21346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>16824</v>
       </c>
@@ -21386,7 +21378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>15494</v>
       </c>
@@ -21418,7 +21410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>15828</v>
       </c>
@@ -21450,7 +21442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>10492</v>
       </c>
@@ -21482,7 +21474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>1674</v>
       </c>
@@ -21514,7 +21506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>515</v>
       </c>
@@ -21543,7 +21535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>11</v>
       </c>
@@ -21572,7 +21564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>7785</v>
       </c>
@@ -21604,7 +21596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>11034</v>
       </c>
@@ -21636,7 +21628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>14270</v>
       </c>
@@ -21668,7 +21660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>413</v>
       </c>
@@ -21697,10 +21689,10 @@
         <v>14</v>
       </c>
       <c r="L622" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>6278</v>
       </c>
@@ -21729,10 +21721,10 @@
         <v>14</v>
       </c>
       <c r="L623" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>9292</v>
       </c>
@@ -21761,10 +21753,10 @@
         <v>14</v>
       </c>
       <c r="L624" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>6306</v>
       </c>
@@ -21796,7 +21788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>3004</v>
       </c>
@@ -21828,7 +21820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>12841</v>
       </c>
@@ -21860,7 +21852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>21459</v>
       </c>
@@ -21892,7 +21884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>13409</v>
       </c>
@@ -21921,7 +21913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>528</v>
       </c>
@@ -21953,7 +21945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>2956</v>
       </c>
@@ -21985,7 +21977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>7690</v>
       </c>
@@ -22011,13 +22003,13 @@
         <v>21</v>
       </c>
       <c r="K632" s="7" t="s">
-        <v>801</v>
+        <v>129</v>
       </c>
       <c r="L632" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>6007</v>
       </c>
@@ -22043,13 +22035,13 @@
         <v>21</v>
       </c>
       <c r="K633" s="7" t="s">
-        <v>797</v>
+        <v>66</v>
       </c>
       <c r="L633" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>10430</v>
       </c>
@@ -22081,7 +22073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>8395</v>
       </c>
@@ -22113,7 +22105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>13198</v>
       </c>
@@ -22142,7 +22134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>2755</v>
       </c>
@@ -22174,7 +22166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>17773</v>
       </c>
@@ -22206,7 +22198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>776</v>
       </c>
@@ -22235,7 +22227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>827</v>
       </c>
@@ -22264,10 +22256,10 @@
         <v>14</v>
       </c>
       <c r="L640" s="6" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>7020</v>
       </c>
@@ -22299,7 +22291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>3960</v>
       </c>
@@ -22331,7 +22323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>2684</v>
       </c>
@@ -22360,10 +22352,10 @@
         <v>21</v>
       </c>
       <c r="L643" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>9881</v>
       </c>
@@ -22392,10 +22384,10 @@
         <v>10</v>
       </c>
       <c r="L644" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>2457</v>
       </c>
@@ -22424,10 +22416,10 @@
         <v>21</v>
       </c>
       <c r="L645" s="6" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>2544</v>
       </c>
@@ -22456,7 +22448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>52</v>
       </c>
@@ -22488,7 +22480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>7528</v>
       </c>
@@ -22520,7 +22512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>252</v>
       </c>
@@ -22552,7 +22544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>5225</v>
       </c>
@@ -22584,7 +22576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>17779</v>
       </c>
@@ -22616,7 +22608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>15775</v>
       </c>
@@ -22645,7 +22637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>6</v>
       </c>
@@ -22674,7 +22666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>5929</v>
       </c>
@@ -22706,7 +22698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>3908</v>
       </c>
@@ -22738,7 +22730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>15780</v>
       </c>
@@ -22754,20 +22746,16 @@
       <c r="F656" t="s">
         <v>39</v>
       </c>
-      <c r="J656" s="7" t="s">
-        <v>679</v>
-      </c>
       <c r="M656" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:L657" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N657">
     <sortCondition ref="J2:J657"/>
   </sortState>
@@ -22784,21 +22772,21 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
